--- a/teaching/traditional_assets/database/data/sudan/sudan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/sudan/sudan_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.373</v>
+        <v>0.475</v>
       </c>
       <c r="E2">
-        <v>0.446</v>
+        <v>0.599</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.3</v>
+        <v>7.41</v>
       </c>
       <c r="L2">
-        <v>0.6647058823529413</v>
+        <v>0.5292857142857142</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,31 +636,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>26.4</v>
+        <v>32.8</v>
       </c>
       <c r="V2">
-        <v>0.6346153846153846</v>
+        <v>0.6096654275092936</v>
       </c>
       <c r="W2">
-        <v>0.09783549783549784</v>
+        <v>0.1193236714975845</v>
       </c>
       <c r="X2">
-        <v>0.1064482625230288</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="Y2">
-        <v>-0.008612764687530916</v>
+        <v>-0.004523077199507286</v>
       </c>
       <c r="Z2">
-        <v>0.3153988868274583</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.1064482625230288</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="AC2">
-        <v>-0.1064482625230288</v>
+        <v>-0.1238467486970918</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-26.4</v>
+        <v>-32.8</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-1.736842105263158</v>
+        <v>-1.561904761904762</v>
       </c>
       <c r="AK2">
-        <v>-0.7394957983193277</v>
+        <v>-1.163120567375886</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.373</v>
+        <v>0.475</v>
       </c>
       <c r="E3">
-        <v>0.446</v>
+        <v>0.599</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.3</v>
+        <v>7.41</v>
       </c>
       <c r="L3">
-        <v>0.6647058823529413</v>
+        <v>0.5292857142857142</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>26.4</v>
+        <v>32.8</v>
       </c>
       <c r="V3">
-        <v>0.6346153846153846</v>
+        <v>0.6096654275092936</v>
       </c>
       <c r="W3">
-        <v>0.09783549783549784</v>
+        <v>0.1193236714975845</v>
       </c>
       <c r="X3">
-        <v>0.1064482625230288</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="Y3">
-        <v>-0.008612764687530916</v>
+        <v>-0.004523077199507286</v>
       </c>
       <c r="Z3">
-        <v>0.3153988868274583</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1064482625230288</v>
+        <v>0.1238467486970918</v>
       </c>
       <c r="AC3">
-        <v>-0.1064482625230288</v>
+        <v>-0.1238467486970918</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-26.4</v>
+        <v>-32.8</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-1.736842105263158</v>
+        <v>-1.561904761904762</v>
       </c>
       <c r="AK3">
-        <v>-0.7394957983193277</v>
+        <v>-1.163120567375886</v>
       </c>
       <c r="AL3">
         <v>0</v>
